--- a/data/Cam_FilingPeriodLobbyist.xlsx
+++ b/data/Cam_FilingPeriodLobbyist.xlsx
@@ -496,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -943,7 +943,7 @@
       </c>
       <c r="D17" s="6" t="inlineStr">
         <is>
-          <t>January 15, 2016</t>
+          <t>2016 January Lobbyist Report</t>
         </is>
       </c>
       <c r="E17" s="4">
@@ -968,7 +968,7 @@
       </c>
       <c r="D18" s="6" t="inlineStr">
         <is>
-          <t>2016 May Lobbyist Filing</t>
+          <t>2016 May Lobbyist Report</t>
         </is>
       </c>
       <c r="E18" s="4">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="D20" s="6" t="inlineStr">
         <is>
-          <t>2016 October Lobbyist Filing</t>
+          <t>2016 October Lobbyist Report</t>
         </is>
       </c>
       <c r="E20" s="4">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="D22" s="6" t="inlineStr">
         <is>
-          <t>2017 January Lobbyist Filing</t>
+          <t>2017 January Lobbyist Report</t>
         </is>
       </c>
       <c r="E22" s="4">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="D23" s="6" t="inlineStr">
         <is>
-          <t>2017 January 48 hour report</t>
+          <t>2017 January 48 Hour Report</t>
         </is>
       </c>
       <c r="E23" s="4">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="D24" s="6" t="inlineStr">
         <is>
-          <t>2017 May Lobbyist Filing</t>
+          <t>2017 May Lobbyist Report</t>
         </is>
       </c>
       <c r="E24" s="4">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="D26" s="6" t="inlineStr">
         <is>
-          <t>2017 October Lobbyist Filing</t>
+          <t>2017 October Lobbyist Report</t>
         </is>
       </c>
       <c r="E26" s="4">
@@ -1179,6 +1179,81 @@
       </c>
       <c r="G26" s="5">
         <v>42857</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5">
+        <v>43115.4993055556</v>
+      </c>
+      <c r="C27" s="5">
+        <v>43100.4993055556</v>
+      </c>
+      <c r="D27" s="6" t="inlineStr">
+        <is>
+          <t>2018 January Lobbyist Report</t>
+        </is>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
+        <v>43011</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5">
+        <v>43148</v>
+      </c>
+      <c r="C28" s="5">
+        <v>43146</v>
+      </c>
+      <c r="D28" s="6" t="inlineStr">
+        <is>
+          <t>2018 January 48 Hour Report</t>
+        </is>
+      </c>
+      <c r="E28" s="4">
+        <v>2</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5">
+        <v>43116</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5">
+        <v>43229.9993055556</v>
+      </c>
+      <c r="C29" s="5">
+        <v>43227.9993055556</v>
+      </c>
+      <c r="D29" s="6" t="inlineStr">
+        <is>
+          <t>2018 May Lobbyist Report</t>
+        </is>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5">
+        <v>43101</v>
       </c>
     </row>
   </sheetData>

--- a/data/Cam_FilingPeriodLobbyist.xlsx
+++ b/data/Cam_FilingPeriodLobbyist.xlsx
@@ -9,15 +9,15 @@
   <sheets>
     <sheet sheetId="1" r:id="rId1" name="Cam_FilingPeriodLobbyist"/>
   </sheets>
+  <definedNames>
+    <definedName name="Cam_FilingPeriodLobbyist">'Cam_FilingPeriodLobbyist'!$A$1:$H$30</definedName>
+  </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd-mmm-yy"/>
-  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -26,37 +26,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -64,42 +33,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,96 +43,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD0D7E5"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD0D7E5"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD0D7E5"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD0D7E5"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD0D7E5"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD0D7E5"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD0D7E5"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD0D7E5"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD0D7E5"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD0D7E5"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD0D7E5"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD0D7E5"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD0D7E5"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD0D7E5"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD0D7E5"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD0D7E5"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFill="1" applyProtection="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="left"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="center"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="center"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="right"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="4" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyNumberFormat="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="right"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="general"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyProtection="1" applyNumberFormat="1" xfId="0">
+      <alignment wrapText="0" vertical="center" horizontal="general"/>
       <protection locked="1" hidden="0"/>
     </xf>
   </cellXfs>
@@ -496,764 +347,779 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="true" min="1" max="1" width="14.0625"/>
-    <col customWidth="true" min="2" max="2" width="14.0625"/>
-    <col customWidth="true" min="3" max="3" width="14.0625"/>
-    <col customWidth="true" min="4" max="4" width="14.0625"/>
-    <col customWidth="true" min="5" max="5" width="14.0625"/>
-    <col customWidth="true" min="6" max="6" width="14.0625"/>
-    <col customWidth="true" min="7" max="7" width="14.0625"/>
-    <col customWidth="true" min="8" max="8" width="14.0625"/>
-  </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="0" t="inlineStr">
         <is>
           <t>FilingPeriodLobbyistId</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="0" t="inlineStr">
         <is>
           <t>FilingDate</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="0" t="inlineStr">
         <is>
           <t>DueDate</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="0" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="0" t="inlineStr">
         <is>
           <t>FilingPeriodLobbyistTypeId</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="0" t="inlineStr">
         <is>
           <t>AllowStatementOfNoActivity</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="0" t="inlineStr">
         <is>
           <t>InitialDate</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="0" t="inlineStr">
         <is>
           <t>RegularFilingPeriodId</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="2">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>40558</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="1">
         <v>40543</v>
       </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr">
         <is>
           <t>January 2011 Regular Report</t>
         </is>
       </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="E2" s="0">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
         <v>38078</v>
       </c>
     </row>
     <row outlineLevel="0" r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="1">
         <v>40665.9993055556</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="1">
         <v>40658.9993055556</v>
       </c>
-      <c r="D3" s="6" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr">
         <is>
           <t>May 2011 Regular Report</t>
         </is>
       </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="E3" s="0">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
         <v>40544</v>
       </c>
     </row>
     <row outlineLevel="0" r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="0">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="1">
         <v>40813</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="1">
         <v>40810.04375</v>
       </c>
-      <c r="D4" s="6" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>September 2011 Special Session - 48 Hour</t>
         </is>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="0">
         <v>2</v>
       </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="F4" s="0">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
         <v>40792.5</v>
       </c>
     </row>
     <row outlineLevel="0" r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="0">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="1">
         <v>40923.9993055556</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="1">
         <v>40908.9993055556</v>
       </c>
-      <c r="D5" s="6" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>January 2012 Regular Report</t>
         </is>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="E5" s="0">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
         <v>40659</v>
       </c>
     </row>
     <row outlineLevel="0" r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="0">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="1">
         <v>40960</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="1">
         <v>40956.9993055556</v>
       </c>
-      <c r="D6" s="6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr">
         <is>
           <t>January 2012-48 Hour Report </t>
         </is>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="0">
         <v>2</v>
       </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="0">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
         <v>40925.3333333333</v>
       </c>
     </row>
     <row outlineLevel="0" r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="0">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="1">
         <v>41030.9993055556</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="1">
         <v>41025.9993055556</v>
       </c>
-      <c r="D7" s="6" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr">
         <is>
           <t>May 2012 Regular Report</t>
         </is>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="E7" s="0">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
         <v>40909</v>
       </c>
     </row>
     <row outlineLevel="0" r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="0">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="1">
         <v>41289.9993055556</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="1">
         <v>41274.9993055556</v>
       </c>
-      <c r="D8" s="6" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr">
         <is>
           <t>2013 January Lobbyist Filing </t>
         </is>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="E8" s="0">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
         <v>41025.3333333333</v>
       </c>
     </row>
     <row outlineLevel="0" r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="0">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="1">
         <v>41351.9993055556</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="1">
         <v>41349.9993055556</v>
       </c>
-      <c r="D9" s="6" t="inlineStr">
+      <c r="D9" s="0" t="inlineStr">
         <is>
           <t>January 2013-48 Hour Report</t>
         </is>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="0">
         <v>2</v>
       </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9" s="0">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
         <v>41289.5</v>
       </c>
     </row>
     <row outlineLevel="0" r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="0">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="1">
         <v>41395.4993055556</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="1">
         <v>41390.9993055556</v>
       </c>
-      <c r="D10" s="6" t="inlineStr">
+      <c r="D10" s="0" t="inlineStr">
         <is>
           <t>2013 May Lobbyist Filing </t>
         </is>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="E10" s="0">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
         <v>41275</v>
       </c>
     </row>
     <row outlineLevel="0" r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="0">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="1">
         <v>41654.4993055556</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="1">
         <v>41639.4993055556</v>
       </c>
-      <c r="D11" s="6" t="inlineStr">
+      <c r="D11" s="0" t="inlineStr">
         <is>
           <t>2014 January Lobbyist Filing</t>
         </is>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="E11" s="0">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
         <v>41390.3333333333</v>
       </c>
     </row>
     <row outlineLevel="0" r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="0">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="1">
         <v>41716.9993055556</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="1">
         <v>41714.9993055556</v>
       </c>
-      <c r="D12" s="6" t="inlineStr">
+      <c r="D12" s="0" t="inlineStr">
         <is>
           <t>January 2014-48 Hour Report </t>
         </is>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="0">
         <v>2</v>
       </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="F12" s="0">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
         <v>41654.5</v>
       </c>
     </row>
     <row outlineLevel="0" r="13">
-      <c r="A13" s="4">
+      <c r="A13" s="0">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="1">
         <v>41760.4993055556</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="1">
         <v>41755.9993055556</v>
       </c>
-      <c r="D13" s="6" t="inlineStr">
+      <c r="D13" s="0" t="inlineStr">
         <is>
           <t>2014 May Lobbyist Filing </t>
         </is>
       </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="E13" s="0">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
         <v>41640</v>
       </c>
     </row>
     <row outlineLevel="0" r="14">
-      <c r="A14" s="4">
+      <c r="A14" s="0">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="1">
         <v>42019</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="1">
         <v>42019</v>
       </c>
-      <c r="D14" s="6" t="inlineStr">
+      <c r="D14" s="0" t="inlineStr">
         <is>
           <t>January 15, 2015 Lobbyist Filing </t>
         </is>
       </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="E14" s="0">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
         <v>41754.3333333333</v>
       </c>
     </row>
     <row outlineLevel="0" r="15">
-      <c r="A15" s="4">
+      <c r="A15" s="0">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="1">
         <v>42086.5</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="1">
         <v>42084.5</v>
       </c>
-      <c r="D15" s="6" t="inlineStr">
+      <c r="D15" s="0" t="inlineStr">
         <is>
           <t>2015 January 48 Hour Report</t>
         </is>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="0">
         <v>2</v>
       </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="F15" s="0">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
         <v>42024.5</v>
       </c>
     </row>
     <row outlineLevel="0" r="16">
-      <c r="A16" s="4">
+      <c r="A16" s="0">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="1">
         <v>42125.4993055556</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="1">
         <v>42119.4993055556</v>
       </c>
-      <c r="D16" s="6" t="inlineStr">
+      <c r="D16" s="0" t="inlineStr">
         <is>
           <t>2015 May Lobbyist Filing </t>
         </is>
       </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="E16" s="0">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
         <v>42005</v>
       </c>
     </row>
     <row outlineLevel="0" r="17">
-      <c r="A17" s="4">
+      <c r="A17" s="0">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="1">
         <v>42384</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="1">
         <v>42384</v>
       </c>
-      <c r="D17" s="6" t="inlineStr">
+      <c r="D17" s="0" t="inlineStr">
         <is>
           <t>2016 January Lobbyist Report</t>
         </is>
       </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="E17" s="0">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
         <v>42119.3333333333</v>
       </c>
     </row>
     <row outlineLevel="0" r="18">
-      <c r="A18" s="4">
+      <c r="A18" s="0">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="1">
         <v>42492.4993055556</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="1">
         <v>42485.4993055556</v>
       </c>
-      <c r="D18" s="6" t="inlineStr">
+      <c r="D18" s="0" t="inlineStr">
         <is>
           <t>2016 May Lobbyist Report</t>
         </is>
       </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="E18" s="0">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
         <v>42370</v>
       </c>
     </row>
     <row outlineLevel="0" r="19">
-      <c r="A19" s="4">
+      <c r="A19" s="0">
         <v>18</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="1">
         <v>42420</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="1">
         <v>42418</v>
       </c>
-      <c r="D19" s="6" t="inlineStr">
+      <c r="D19" s="0" t="inlineStr">
         <is>
           <t>2016 January 48 Hour Report</t>
         </is>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="0">
         <v>2</v>
       </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="F19" s="0">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
         <v>42388</v>
       </c>
     </row>
     <row outlineLevel="0" r="20">
-      <c r="A20" s="4">
+      <c r="A20" s="0">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="1">
         <v>42648.9993055556</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="1">
         <v>42646.9993055556</v>
       </c>
-      <c r="D20" s="6" t="inlineStr">
+      <c r="D20" s="0" t="inlineStr">
         <is>
           <t>2016 October Lobbyist Report</t>
         </is>
       </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="E20" s="0">
+        <v>1</v>
+      </c>
+      <c r="F20" s="0">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
         <v>42486</v>
       </c>
     </row>
     <row outlineLevel="0" r="21">
-      <c r="A21" s="4">
+      <c r="A21" s="0">
         <v>20</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="1">
         <v>42650</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="1">
         <v>42650</v>
       </c>
-      <c r="D21" s="6" t="inlineStr">
+      <c r="D21" s="0" t="inlineStr">
         <is>
           <t>2016 October 48 Hour Report</t>
         </is>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="0">
         <v>2</v>
       </c>
-      <c r="F21" s="4">
-        <v>1</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="F21" s="0">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
         <v>42643.3333333333</v>
       </c>
     </row>
     <row outlineLevel="0" r="22">
-      <c r="A22" s="4">
+      <c r="A22" s="0">
         <v>21</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="1">
         <v>42750.9993055556</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="1">
         <v>42750.9993055556</v>
       </c>
-      <c r="D22" s="6" t="inlineStr">
+      <c r="D22" s="0" t="inlineStr">
         <is>
           <t>2017 January Lobbyist Report</t>
         </is>
       </c>
-      <c r="E22" s="4">
-        <v>1</v>
-      </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="E22" s="0">
+        <v>1</v>
+      </c>
+      <c r="F22" s="0">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
         <v>42647</v>
       </c>
     </row>
     <row outlineLevel="0" r="23">
-      <c r="A23" s="4">
+      <c r="A23" s="0">
         <v>22</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="1">
         <v>42814.9993055556</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="1">
         <v>42814.9993055556</v>
       </c>
-      <c r="D23" s="6" t="inlineStr">
+      <c r="D23" s="0" t="inlineStr">
         <is>
           <t>2017 January 48 Hour Report</t>
         </is>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="0">
         <v>2</v>
       </c>
-      <c r="F23" s="4">
-        <v>1</v>
-      </c>
-      <c r="G23" s="5">
+      <c r="F23" s="0">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
         <v>42752.5</v>
       </c>
     </row>
     <row outlineLevel="0" r="24">
-      <c r="A24" s="4">
+      <c r="A24" s="0">
         <v>23</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="1">
         <v>42858.9993055556</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="1">
         <v>42856.9993055556</v>
       </c>
-      <c r="D24" s="6" t="inlineStr">
+      <c r="D24" s="0" t="inlineStr">
         <is>
           <t>2017 May Lobbyist Report</t>
         </is>
       </c>
-      <c r="E24" s="4">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="E24" s="0">
+        <v>1</v>
+      </c>
+      <c r="F24" s="0">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
         <v>42751</v>
       </c>
     </row>
     <row outlineLevel="0" r="25">
-      <c r="A25" s="4">
+      <c r="A25" s="0">
         <v>24</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="1">
         <v>42884.9993055556</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="1">
         <v>42884.9993055556</v>
       </c>
-      <c r="D25" s="6" t="inlineStr">
+      <c r="D25" s="0" t="inlineStr">
         <is>
           <t>2017 May 48 Hour Report</t>
         </is>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="0">
         <v>2</v>
       </c>
-      <c r="F25" s="4">
-        <v>1</v>
-      </c>
-      <c r="G25" s="5">
+      <c r="F25" s="0">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
         <v>42879</v>
       </c>
     </row>
     <row outlineLevel="0" r="26">
-      <c r="A26" s="4">
+      <c r="A26" s="0">
         <v>25</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="1">
         <v>43012.9993055556</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="1">
         <v>43010.9993055556</v>
       </c>
-      <c r="D26" s="6" t="inlineStr">
+      <c r="D26" s="0" t="inlineStr">
         <is>
           <t>2017 October Lobbyist Report</t>
         </is>
       </c>
-      <c r="E26" s="4">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4">
-        <v>1</v>
-      </c>
-      <c r="G26" s="5">
+      <c r="E26" s="0">
+        <v>1</v>
+      </c>
+      <c r="F26" s="0">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
         <v>42857</v>
       </c>
     </row>
     <row outlineLevel="0" r="27">
-      <c r="A27" s="4">
+      <c r="A27" s="0">
         <v>26</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="1">
         <v>43115.4993055556</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="1">
         <v>43100.4993055556</v>
       </c>
-      <c r="D27" s="6" t="inlineStr">
+      <c r="D27" s="0" t="inlineStr">
         <is>
           <t>2018 January Lobbyist Report</t>
         </is>
       </c>
-      <c r="E27" s="4">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4">
-        <v>1</v>
-      </c>
-      <c r="G27" s="5">
+      <c r="E27" s="0">
+        <v>1</v>
+      </c>
+      <c r="F27" s="0">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
         <v>43011</v>
       </c>
     </row>
     <row outlineLevel="0" r="28">
-      <c r="A28" s="4">
+      <c r="A28" s="0">
         <v>27</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="1">
         <v>43148</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="1">
         <v>43146</v>
       </c>
-      <c r="D28" s="6" t="inlineStr">
+      <c r="D28" s="0" t="inlineStr">
         <is>
           <t>2018 January 48 Hour Report</t>
         </is>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="0">
         <v>2</v>
       </c>
-      <c r="F28" s="4">
-        <v>1</v>
-      </c>
-      <c r="G28" s="5">
+      <c r="F28" s="0">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
         <v>43116</v>
       </c>
     </row>
     <row outlineLevel="0" r="29">
-      <c r="A29" s="4">
+      <c r="A29" s="0">
         <v>28</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="1">
         <v>43229.9993055556</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="1">
         <v>43227.9993055556</v>
       </c>
-      <c r="D29" s="6" t="inlineStr">
+      <c r="D29" s="0" t="inlineStr">
         <is>
           <t>2018 May Lobbyist Report</t>
         </is>
       </c>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4">
-        <v>1</v>
-      </c>
-      <c r="G29" s="5">
+      <c r="E29" s="0">
+        <v>1</v>
+      </c>
+      <c r="F29" s="0">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
         <v>43101</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="0">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>43376.9993055556</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43374.9993055556</v>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>2018 October Lobbyist Report</t>
+        </is>
+      </c>
+      <c r="E30" s="0">
+        <v>1</v>
+      </c>
+      <c r="F30" s="0">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>43228</v>
       </c>
     </row>
   </sheetData>

--- a/data/Cam_FilingPeriodLobbyist.xlsx
+++ b/data/Cam_FilingPeriodLobbyist.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="Cam_FilingPeriodLobbyist"/>
   </sheets>
   <definedNames>
-    <definedName name="Cam_FilingPeriodLobbyist">'Cam_FilingPeriodLobbyist'!$A$1:$H$30</definedName>
+    <definedName name="Cam_FilingPeriodLobbyist">'Cam_FilingPeriodLobbyist'!$A$1:$H$31</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1122,6 +1122,31 @@
         <v>43228</v>
       </c>
     </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="0">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>43480.4993055556</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43465.4993055556</v>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>2019 January Lobbyist Report</t>
+        </is>
+      </c>
+      <c r="E31" s="0">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>43375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Cam_FilingPeriodLobbyist.xlsx
+++ b/data/Cam_FilingPeriodLobbyist.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="Cam_FilingPeriodLobbyist"/>
   </sheets>
   <definedNames>
-    <definedName name="Cam_FilingPeriodLobbyist">'Cam_FilingPeriodLobbyist'!$A$1:$H$31</definedName>
+    <definedName name="Cam_FilingPeriodLobbyist">'Cam_FilingPeriodLobbyist'!$A$1:$H$33</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1147,6 +1147,56 @@
         <v>43375</v>
       </c>
     </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="0">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>43542.5</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43540</v>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>2019 January 48 Hour Report</t>
+        </is>
+      </c>
+      <c r="E32" s="0">
+        <v>2</v>
+      </c>
+      <c r="F32" s="0">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>43480</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="0">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>43593.9993055556</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43591.9993055556</v>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>2019 May Lobbyist Report</t>
+        </is>
+      </c>
+      <c r="E33" s="0">
+        <v>1</v>
+      </c>
+      <c r="F33" s="0">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>43466</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Cam_FilingPeriodLobbyist.xlsx
+++ b/data/Cam_FilingPeriodLobbyist.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="Cam_FilingPeriodLobbyist"/>
+    <sheet sheetId="1" r:id="rId1" name="NMInDepth_Cam_FilingPeriodLobby"/>
   </sheets>
   <definedNames>
-    <definedName name="Cam_FilingPeriodLobbyist">'Cam_FilingPeriodLobbyist'!$A$1:$H$33</definedName>
+    <definedName name="NMInDepth_Cam_FilingPeriodLobbyist">'NMInDepth_Cam_FilingPeriodLobby'!$A$1:$H$34</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1197,6 +1197,31 @@
         <v>43466</v>
       </c>
     </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="0">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>43747.9993055556</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43745.9993055556</v>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>2019 October Lobbyist Report</t>
+        </is>
+      </c>
+      <c r="E34" s="0">
+        <v>1</v>
+      </c>
+      <c r="F34" s="0">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>43592</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
